--- a/e.xlsx
+++ b/e.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yu^2\Desktop\新增資料夾\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Yu^2\Desktop\新增資料夾\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E302892A-64CB-4ED9-A99F-5507AC9F676B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC715285-C6E0-4F51-AFCB-8AAC2095C561}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>腹膜透析次數</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>血液透析人數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -221,6 +217,10 @@
   </si>
   <si>
     <t>111-12</t>
+  </si>
+  <si>
+    <t>腹膜透析人數</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -596,7 +596,7 @@
   <dimension ref="A1:BI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A24"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -611,184 +611,184 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AL1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AO1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AW1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AX1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AM1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AO1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="AQ1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU1" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV1" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AW1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AX1" s="7" t="s">
+      <c r="AY1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AY1" s="7" t="s">
+      <c r="AZ1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AZ1" s="7" t="s">
+      <c r="BA1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="BA1" s="7" t="s">
+      <c r="BB1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="BB1" s="7" t="s">
+      <c r="BC1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="BC1" s="7" t="s">
+      <c r="BD1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="BD1" s="7" t="s">
+      <c r="BE1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="BE1" s="7" t="s">
+      <c r="BF1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="BF1" s="7" t="s">
+      <c r="BG1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="BG1" s="7" t="s">
+      <c r="BH1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="BH1" s="7" t="s">
+      <c r="BI1" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="BI1" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -965,7 +965,7 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="B3" s="3">
         <v>50</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>185</v>
